--- a/data/trans_dic/P41A_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P41A_R2-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4223102294939139</v>
+        <v>0.422534541993166</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4382179533782125</v>
+        <v>0.4358082739264558</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3507704798177171</v>
+        <v>0.3508304961755183</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3207912280947439</v>
+        <v>0.3191706243769743</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3500330852998879</v>
+        <v>0.3510114742852217</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3758903294733492</v>
+        <v>0.3720633414454016</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.291953517661074</v>
+        <v>0.2884779647937576</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2704329857092764</v>
+        <v>0.269311022516167</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3985170120455622</v>
+        <v>0.3990455567004648</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4157387431900402</v>
+        <v>0.4156746869802143</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3304112029813432</v>
+        <v>0.3322173932916965</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.306979929354364</v>
+        <v>0.3052266897355839</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4952464274761568</v>
+        <v>0.49795987609288</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5138802906577844</v>
+        <v>0.512140018109421</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4256256142351038</v>
+        <v>0.4254162910499438</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4128457318647989</v>
+        <v>0.4121442611731597</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4232591941408259</v>
+        <v>0.4269313700729306</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4522775829493235</v>
+        <v>0.4507093004155783</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3628432254790437</v>
+        <v>0.3601492149532259</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.336007979729473</v>
+        <v>0.3380647950021864</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4497274063877054</v>
+        <v>0.4515190129924164</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4703390925652138</v>
+        <v>0.4709757828048269</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3817219971737168</v>
+        <v>0.3835226942872947</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3658962243388059</v>
+        <v>0.3614267325690468</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.4105182121624441</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3710251432358836</v>
+        <v>0.3710251432358835</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.4548574100882357</v>
@@ -833,7 +833,7 @@
         <v>0.4499501697305379</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.4200787266328879</v>
+        <v>0.4200787266328878</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4698987399823886</v>
+        <v>0.4671136805461085</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4766499430122371</v>
+        <v>0.4732100054370348</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4570290073137693</v>
+        <v>0.4577037589136832</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4287338448044651</v>
+        <v>0.4309130155050429</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3790257198185876</v>
+        <v>0.3759642588508152</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3583618841724738</v>
+        <v>0.3609260216581862</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3781270606486603</v>
+        <v>0.3788225107543221</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3423631993824564</v>
+        <v>0.3407642533071036</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4321769810404468</v>
+        <v>0.4323469188575976</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4261425976444294</v>
+        <v>0.4261287542544142</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4274922131827432</v>
+        <v>0.429082510565012</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3949955283779744</v>
+        <v>0.3946944986681262</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.537941252499388</v>
+        <v>0.5331303502056858</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5411848232804816</v>
+        <v>0.5401964752663158</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5214565890013514</v>
+        <v>0.5232490819683558</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5049422150394833</v>
+        <v>0.5032946466899187</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.44479064899084</v>
+        <v>0.4437671945454678</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4242622705952769</v>
+        <v>0.4232181238726979</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.439838436970196</v>
+        <v>0.4400872019202621</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4023019612020511</v>
+        <v>0.4040903696148437</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4802667415231606</v>
+        <v>0.4783032703285343</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.473129732979426</v>
+        <v>0.4717043049558782</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4727153482961376</v>
+        <v>0.4742937258446777</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4432570806813947</v>
+        <v>0.4453978252644952</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.4258859629451876</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3670320541766228</v>
+        <v>0.3670320541766229</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.4592508171370231</v>
@@ -969,7 +969,7 @@
         <v>0.4375831480381391</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.3707591270246252</v>
+        <v>0.3707591270246251</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4577308859650032</v>
+        <v>0.4590342273952067</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4584704224726084</v>
+        <v>0.4585637972479494</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4143579209862402</v>
+        <v>0.4184347421516937</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3301283343968626</v>
+        <v>0.3257641744053676</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3829729590386345</v>
+        <v>0.382859937652379</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3348331931461012</v>
+        <v>0.3335985134189081</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3861027565239338</v>
+        <v>0.3927108095973954</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3280504217893374</v>
+        <v>0.3298872952192667</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4321072037149279</v>
+        <v>0.4316405044232264</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4041799346587667</v>
+        <v>0.4015082788106764</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4123149120624476</v>
+        <v>0.4118648983629709</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3376379315459264</v>
+        <v>0.3366013396965437</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5341834590301983</v>
+        <v>0.535145041211729</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5334339031837505</v>
+        <v>0.5355068328561097</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4874384758972986</v>
+        <v>0.4885989876871442</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4289464965933328</v>
+        <v>0.4292957937159608</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.460136086835319</v>
+        <v>0.4609310447404394</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4082734108291801</v>
+        <v>0.403464775908649</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4586434999976273</v>
+        <v>0.4644339064680151</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4104749913665728</v>
+        <v>0.4128052621787205</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4856426930014113</v>
+        <v>0.4864115674564032</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4568363904977024</v>
+        <v>0.4559379124141076</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.462113021025101</v>
+        <v>0.4626638680657617</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4032729300165561</v>
+        <v>0.4022605187672964</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.4898639939475353</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4211501012081525</v>
+        <v>0.4211501012081523</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.4006372879997476</v>
@@ -1105,7 +1105,7 @@
         <v>0.430279549388986</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3813516147796216</v>
+        <v>0.3813516147796217</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4911686424556724</v>
+        <v>0.4921841647118207</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4592299851230763</v>
+        <v>0.4570507849652798</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.454380518902906</v>
+        <v>0.4554301860987928</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3820314658188431</v>
+        <v>0.3828504253568853</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.368867428739294</v>
+        <v>0.3695212018306689</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3458473201824269</v>
+        <v>0.3503545514060055</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3444693425152465</v>
+        <v>0.3444739795994352</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3065758339618919</v>
+        <v>0.3142956289440523</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.438152438722572</v>
+        <v>0.4363651858591244</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.409173684670599</v>
+        <v>0.4087817522913095</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4091170940763458</v>
+        <v>0.4063084523984228</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.355023844392082</v>
+        <v>0.3570916444651654</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5558698683866574</v>
+        <v>0.557066800508802</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5244639119184534</v>
+        <v>0.5219790145742595</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5221058979603908</v>
+        <v>0.5199009874502726</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4582410032602426</v>
+        <v>0.4581307011186866</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4307219524553053</v>
+        <v>0.4321481090047405</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4096461839284684</v>
+        <v>0.4140855870618291</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4059422332056383</v>
+        <v>0.407107264803648</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3735618309414</v>
+        <v>0.376044055148222</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4820428903984457</v>
+        <v>0.4808654356741264</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4537515740755353</v>
+        <v>0.4536790248095303</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4543654481762662</v>
+        <v>0.452460032203485</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4056030800155493</v>
+        <v>0.4072988855790309</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.3876104564465887</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3471624765937878</v>
+        <v>0.3471624765937879</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.4508491993661912</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4793705911855092</v>
+        <v>0.4800116549989177</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.476276614759228</v>
+        <v>0.4751611213326866</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4439392837454911</v>
+        <v>0.4424729540896555</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3949379233435359</v>
+        <v>0.3922533795319028</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3876577281461242</v>
+        <v>0.3877862588926904</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3707853119922125</v>
+        <v>0.3707378670422237</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3708424105581282</v>
+        <v>0.3718120631084368</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3305230996059919</v>
+        <v>0.3302339312568254</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4395075421811741</v>
+        <v>0.438925716181664</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4266672921309126</v>
+        <v>0.4256343455814526</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4116045473461931</v>
+        <v>0.4106567244278691</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3669002462222862</v>
+        <v>0.3664934725809988</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5138467378271427</v>
+        <v>0.5158610351882837</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5109210180082548</v>
+        <v>0.5123082356519546</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4788658019163877</v>
+        <v>0.4772295485656173</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4374175804237558</v>
+        <v>0.4372479536010201</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4217495088494569</v>
+        <v>0.4210922884323418</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4045583395263146</v>
+        <v>0.4041256623333837</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4062808178552755</v>
+        <v>0.404264929491939</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3652431349736872</v>
+        <v>0.364686862662824</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4636914926707911</v>
+        <v>0.463811133366152</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4512002077380867</v>
+        <v>0.4504978222411887</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4350940943782815</v>
+        <v>0.4343818794161468</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3944388136147982</v>
+        <v>0.3951521106005882</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>292256</v>
+        <v>292412</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>308273</v>
+        <v>306578</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>236700</v>
+        <v>236740</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>169013</v>
+        <v>168160</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>240946</v>
+        <v>241619</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>262014</v>
+        <v>259347</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>194870</v>
+        <v>192550</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>149517</v>
+        <v>148896</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>550110</v>
+        <v>550840</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>582250</v>
+        <v>582160</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>443501</v>
+        <v>445925</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>331459</v>
+        <v>329566</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>342731</v>
+        <v>344609</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>361499</v>
+        <v>360275</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>287212</v>
+        <v>287071</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>217514</v>
+        <v>217144</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>291351</v>
+        <v>293879</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>315260</v>
+        <v>314167</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>242187</v>
+        <v>240389</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>185772</v>
+        <v>186909</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>620801</v>
+        <v>623274</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>658719</v>
+        <v>659611</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>512374</v>
+        <v>514791</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>395074</v>
+        <v>390248</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>450954</v>
+        <v>448281</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>484216</v>
+        <v>480721</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>466899</v>
+        <v>467588</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>347262</v>
+        <v>349027</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>365498</v>
+        <v>362546</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>369154</v>
+        <v>371796</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>393649</v>
+        <v>394373</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>263736</v>
+        <v>262505</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>831505</v>
+        <v>831832</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>871883</v>
+        <v>871855</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>881764</v>
+        <v>885044</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>624217</v>
+        <v>623741</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>516253</v>
+        <v>511636</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>549775</v>
+        <v>548771</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>532717</v>
+        <v>534549</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>408989</v>
+        <v>407655</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>428916</v>
+        <v>427929</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>437039</v>
+        <v>435964</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>457894</v>
+        <v>458153</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>309910</v>
+        <v>311287</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>924029</v>
+        <v>920252</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>968018</v>
+        <v>965102</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>975043</v>
+        <v>978299</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>700485</v>
+        <v>703868</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>308914</v>
+        <v>309794</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>346501</v>
+        <v>346572</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>313836</v>
+        <v>316924</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>157710</v>
+        <v>155625</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>258948</v>
+        <v>258872</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>259893</v>
+        <v>258934</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>302731</v>
+        <v>307912</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>152684</v>
+        <v>153538</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>583791</v>
+        <v>583161</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>619188</v>
+        <v>615095</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>635571</v>
+        <v>634878</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>318444</v>
+        <v>317466</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>360511</v>
+        <v>361160</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>403157</v>
+        <v>404723</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>369188</v>
+        <v>370067</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>204918</v>
+        <v>205085</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>311122</v>
+        <v>311659</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>316896</v>
+        <v>313164</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>359608</v>
+        <v>364148</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>191046</v>
+        <v>192131</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>656119</v>
+        <v>657158</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>699856</v>
+        <v>698480</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>712334</v>
+        <v>713183</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>380347</v>
+        <v>379392</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>461052</v>
+        <v>462005</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>435230</v>
+        <v>433165</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>424324</v>
+        <v>425304</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>262913</v>
+        <v>263477</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>380744</v>
+        <v>381419</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>363797</v>
+        <v>368538</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>356931</v>
+        <v>356936</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>222792</v>
+        <v>228402</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>863546</v>
+        <v>860024</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>818200</v>
+        <v>817416</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>805971</v>
+        <v>800438</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>502326</v>
+        <v>505252</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>521786</v>
+        <v>522910</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>497055</v>
+        <v>494700</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>487569</v>
+        <v>485510</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>315360</v>
+        <v>315284</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>444590</v>
+        <v>446062</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>430907</v>
+        <v>435577</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>420628</v>
+        <v>421835</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>271472</v>
+        <v>273276</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>950049</v>
+        <v>947729</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>907340</v>
+        <v>907195</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>895112</v>
+        <v>891358</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>573891</v>
+        <v>576291</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1565284</v>
+        <v>1567377</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1630227</v>
+        <v>1626409</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1503910</v>
+        <v>1498943</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>988434</v>
+        <v>981715</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1302921</v>
+        <v>1303353</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1318236</v>
+        <v>1318067</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1308615</v>
+        <v>1312037</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>831384</v>
+        <v>830657</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2912308</v>
+        <v>2908453</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2977331</v>
+        <v>2970123</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2846827</v>
+        <v>2840271</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1841148</v>
+        <v>1839107</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1677859</v>
+        <v>1684436</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1748810</v>
+        <v>1753558</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1622229</v>
+        <v>1616686</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1094750</v>
+        <v>1094326</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1417504</v>
+        <v>1415295</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1438307</v>
+        <v>1436769</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1433669</v>
+        <v>1426555</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>918717</v>
+        <v>917318</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>3072558</v>
+        <v>3073351</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>3148525</v>
+        <v>3143623</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>3009290</v>
+        <v>3004364</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1979340</v>
+        <v>1982919</v>
       </c>
     </row>
     <row r="24">
